--- a/fileOutput.xlsx
+++ b/fileOutput.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="added" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -71,14 +73,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,46 +161,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="added" displayName="added" ref="A1:E3" headerRowCount="1">
-  <autoFilter ref="A1:E3"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="added" displayName="added" ref="A1:F3" headerRowCount="1">
+  <autoFilter ref="A1:F3"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Email"/>
-    <tableColumn id="3" name="Phone"/>
-    <tableColumn id="4" name="Address"/>
-    <tableColumn id="5" name="Status"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Email"/>
+    <tableColumn id="4" name="Phone"/>
+    <tableColumn id="5" name="Address"/>
+    <tableColumn id="6" name="Status"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="removed" displayName="removed" ref="A1:E1" headerRowCount="1">
-  <autoFilter ref="A1:E1"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Email"/>
-    <tableColumn id="3" name="Phone"/>
-    <tableColumn id="4" name="Address"/>
-    <tableColumn id="5" name="Status"/>
-  </tableColumns>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="common" displayName="common" ref="A1:E4" headerRowCount="1">
-  <autoFilter ref="A1:E4"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Email"/>
-    <tableColumn id="3" name="Phone"/>
-    <tableColumn id="4" name="Address"/>
-    <tableColumn id="5" name="Status"/>
-  </tableColumns>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="changes" displayName="changes" ref="A1:E4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="common" displayName="common" ref="A1:E4" headerRowCount="1">
   <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name"/>
@@ -208,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,44 +478,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="16" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="25" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="9" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -545,22 +533,25 @@
           <t>Hamza Babar</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="n">
+        <v>45905.03986111111</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>hamzaBabar@gmail.com</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>##-####-#########</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>temp/address/entry</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -572,22 +563,25 @@
           <t>Master Jiraya</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="n">
+        <v>45905.03986111111</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>masterjiraya@gmail.com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>##-####-#########</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>temp/address/entry</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -609,42 +603,34 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -652,9 +638,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -668,40 +651,40 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -718,9 +701,9 @@
           <t>slenderman@gmail.com</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>##-####-#########</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>0350</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -745,10 +728,8 @@
           <t>enigma@gmail.com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>##-####-#########</t>
-        </is>
+      <c r="C3" t="n">
+        <v>3500</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,10 +753,8 @@
           <t>wendigo@gmail.com</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>##-####-#########</t>
-        </is>
+      <c r="C4" t="n">
+        <v>-5600</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,42 +783,34 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -904,8 +875,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>